--- a/processed_data/daily_price_data.xlsx
+++ b/processed_data/daily_price_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,6 +911,144 @@
         <v>285.12</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B21" t="n">
+        <v>720</v>
+      </c>
+      <c r="C21" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>720</v>
+      </c>
+      <c r="E21" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1640</v>
+      </c>
+      <c r="G21" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B22" t="n">
+        <v>695.625</v>
+      </c>
+      <c r="C22" t="n">
+        <v>482</v>
+      </c>
+      <c r="D22" t="n">
+        <v>695.625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>482</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G22" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B23" t="n">
+        <v>708.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>492.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>708.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>492.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G23" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B24" t="n">
+        <v>723</v>
+      </c>
+      <c r="C24" t="n">
+        <v>560</v>
+      </c>
+      <c r="D24" t="n">
+        <v>723</v>
+      </c>
+      <c r="E24" t="n">
+        <v>560</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1859</v>
+      </c>
+      <c r="G24" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B25" t="n">
+        <v>716</v>
+      </c>
+      <c r="C25" t="n">
+        <v>985</v>
+      </c>
+      <c r="D25" t="n">
+        <v>716</v>
+      </c>
+      <c r="E25" t="n">
+        <v>985</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2840</v>
+      </c>
+      <c r="G25" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B26" t="n">
+        <v>714</v>
+      </c>
+      <c r="C26" t="n">
+        <v>808.4649999999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>714</v>
+      </c>
+      <c r="E26" t="n">
+        <v>808.4649999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2840</v>
+      </c>
+      <c r="G26" t="n">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/processed_data/daily_price_data.xlsx
+++ b/processed_data/daily_price_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,52 @@
         <v>294</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B27" t="n">
+        <v>687</v>
+      </c>
+      <c r="C27" t="n">
+        <v>781</v>
+      </c>
+      <c r="D27" t="n">
+        <v>687</v>
+      </c>
+      <c r="E27" t="n">
+        <v>781</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2840</v>
+      </c>
+      <c r="G27" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B28" t="n">
+        <v>690</v>
+      </c>
+      <c r="C28" t="n">
+        <v>685.85</v>
+      </c>
+      <c r="D28" t="n">
+        <v>690</v>
+      </c>
+      <c r="E28" t="n">
+        <v>685.85</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G28" t="n">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/processed_data/daily_price_data.xlsx
+++ b/processed_data/daily_price_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,22 +479,22 @@
         <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>597</v>
+        <v>761</v>
       </c>
       <c r="C2" t="n">
-        <v>795.365</v>
+        <v>1288</v>
       </c>
       <c r="D2" t="n">
-        <v>597</v>
+        <v>761</v>
       </c>
       <c r="E2" t="n">
-        <v>795.365</v>
+        <v>1288</v>
       </c>
       <c r="F2" t="n">
-        <v>2440</v>
+        <v>1499</v>
       </c>
       <c r="G2" t="n">
-        <v>309</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>760.5</v>
+        <v>769</v>
       </c>
       <c r="C3" t="n">
-        <v>1088.5</v>
+        <v>1361</v>
       </c>
       <c r="D3" t="n">
-        <v>760.5</v>
+        <v>769</v>
       </c>
       <c r="E3" t="n">
-        <v>1088.5</v>
+        <v>1361</v>
       </c>
       <c r="F3" t="n">
-        <v>2440</v>
+        <v>1499</v>
       </c>
       <c r="G3" t="n">
-        <v>318</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4">
@@ -525,22 +525,22 @@
         <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="C4" t="n">
-        <v>709</v>
+        <v>1417</v>
       </c>
       <c r="D4" t="n">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="E4" t="n">
-        <v>709</v>
+        <v>1417</v>
       </c>
       <c r="F4" t="n">
-        <v>2440</v>
+        <v>1499</v>
       </c>
       <c r="G4" t="n">
-        <v>317</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5">
@@ -548,22 +548,22 @@
         <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="C5" t="n">
-        <v>848.505</v>
+        <v>1288</v>
       </c>
       <c r="D5" t="n">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="E5" t="n">
-        <v>848.505</v>
+        <v>1288</v>
       </c>
       <c r="F5" t="n">
-        <v>2440</v>
+        <v>1499</v>
       </c>
       <c r="G5" t="n">
-        <v>302</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6">
@@ -571,22 +571,22 @@
         <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>614</v>
+        <v>733</v>
       </c>
       <c r="C6" t="n">
-        <v>784</v>
+        <v>1417</v>
       </c>
       <c r="D6" t="n">
-        <v>614</v>
+        <v>733</v>
       </c>
       <c r="E6" t="n">
-        <v>784</v>
+        <v>1417</v>
       </c>
       <c r="F6" t="n">
-        <v>2440</v>
+        <v>1499</v>
       </c>
       <c r="G6" t="n">
-        <v>305.64</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7">
@@ -594,22 +594,22 @@
         <v>45836</v>
       </c>
       <c r="B7" t="n">
-        <v>683.125</v>
+        <v>733</v>
       </c>
       <c r="C7" t="n">
-        <v>583.345</v>
+        <v>1417</v>
       </c>
       <c r="D7" t="n">
-        <v>683.125</v>
+        <v>733</v>
       </c>
       <c r="E7" t="n">
-        <v>583.345</v>
+        <v>1417</v>
       </c>
       <c r="F7" t="n">
-        <v>2440</v>
+        <v>1499</v>
       </c>
       <c r="G7" t="n">
-        <v>329</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8">
@@ -617,22 +617,22 @@
         <v>45838</v>
       </c>
       <c r="B8" t="n">
-        <v>703.5</v>
+        <v>752</v>
       </c>
       <c r="C8" t="n">
-        <v>1181</v>
+        <v>1417</v>
       </c>
       <c r="D8" t="n">
-        <v>703.5</v>
+        <v>752</v>
       </c>
       <c r="E8" t="n">
-        <v>1181</v>
+        <v>1417</v>
       </c>
       <c r="F8" t="n">
-        <v>2440</v>
+        <v>1499</v>
       </c>
       <c r="G8" t="n">
-        <v>341</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9">
@@ -640,22 +640,22 @@
         <v>45839</v>
       </c>
       <c r="B9" t="n">
-        <v>589</v>
+        <v>759</v>
       </c>
       <c r="C9" t="n">
+        <v>1417</v>
+      </c>
+      <c r="D9" t="n">
+        <v>759</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1417</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G9" t="n">
         <v>689</v>
-      </c>
-      <c r="D9" t="n">
-        <v>589</v>
-      </c>
-      <c r="E9" t="n">
-        <v>689</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2440</v>
-      </c>
-      <c r="G9" t="n">
-        <v>318</v>
       </c>
     </row>
     <row r="10">
@@ -663,22 +663,22 @@
         <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>460</v>
+        <v>747</v>
       </c>
       <c r="C10" t="n">
-        <v>1080</v>
+        <v>1118.01</v>
       </c>
       <c r="D10" t="n">
-        <v>460</v>
+        <v>747</v>
       </c>
       <c r="E10" t="n">
-        <v>1080</v>
+        <v>1118.01</v>
       </c>
       <c r="F10" t="n">
-        <v>1331</v>
+        <v>1349</v>
       </c>
       <c r="G10" t="n">
-        <v>302</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11">
@@ -686,413 +686,574 @@
         <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>823.875</v>
+        <v>975.4400000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>579</v>
+        <v>1199</v>
       </c>
       <c r="D11" t="n">
-        <v>823.875</v>
+        <v>975.4400000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>579</v>
+        <v>1199</v>
       </c>
       <c r="F11" t="n">
-        <v>1640</v>
+        <v>1499</v>
       </c>
       <c r="G11" t="n">
-        <v>309</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>619</v>
+        <v>760</v>
       </c>
       <c r="C12" t="n">
-        <v>599</v>
+        <v>1417</v>
       </c>
       <c r="D12" t="n">
-        <v>619</v>
+        <v>760</v>
       </c>
       <c r="E12" t="n">
-        <v>599</v>
+        <v>1417</v>
       </c>
       <c r="F12" t="n">
-        <v>2439.53</v>
+        <v>1499</v>
       </c>
       <c r="G12" t="n">
-        <v>316</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>755.5</v>
+        <v>760</v>
       </c>
       <c r="C13" t="n">
-        <v>819.98</v>
+        <v>1417</v>
       </c>
       <c r="D13" t="n">
-        <v>755.5</v>
+        <v>760</v>
       </c>
       <c r="E13" t="n">
-        <v>819.98</v>
+        <v>1417</v>
       </c>
       <c r="F13" t="n">
-        <v>1979</v>
+        <v>1499</v>
       </c>
       <c r="G13" t="n">
-        <v>325</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="C14" t="n">
-        <v>1071.3</v>
+        <v>850</v>
       </c>
       <c r="D14" t="n">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="E14" t="n">
-        <v>1071.3</v>
+        <v>850</v>
       </c>
       <c r="F14" t="n">
-        <v>1894</v>
+        <v>1499</v>
       </c>
       <c r="G14" t="n">
-        <v>305</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="C15" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D15" t="n">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="E15" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F15" t="n">
-        <v>1894</v>
+        <v>1499</v>
       </c>
       <c r="G15" t="n">
-        <v>309</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>664.72</v>
+        <v>738</v>
       </c>
       <c r="C16" t="n">
-        <v>720.8199999999999</v>
+        <v>1417</v>
       </c>
       <c r="D16" t="n">
-        <v>664.72</v>
+        <v>738</v>
       </c>
       <c r="E16" t="n">
-        <v>720.8199999999999</v>
+        <v>1417</v>
       </c>
       <c r="F16" t="n">
-        <v>1640</v>
+        <v>1499</v>
       </c>
       <c r="G16" t="n">
-        <v>309</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B17" t="n">
-        <v>703.5</v>
+        <v>733</v>
       </c>
       <c r="C17" t="n">
-        <v>608.5</v>
+        <v>1417</v>
       </c>
       <c r="D17" t="n">
-        <v>703.5</v>
+        <v>733</v>
       </c>
       <c r="E17" t="n">
-        <v>608.5</v>
+        <v>1417</v>
       </c>
       <c r="F17" t="n">
-        <v>1640</v>
+        <v>1499</v>
       </c>
       <c r="G17" t="n">
-        <v>276</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B18" t="n">
-        <v>725.5</v>
+        <v>733</v>
       </c>
       <c r="C18" t="n">
-        <v>1109.5</v>
+        <v>1417</v>
       </c>
       <c r="D18" t="n">
-        <v>725.5</v>
+        <v>733</v>
       </c>
       <c r="E18" t="n">
-        <v>1109.5</v>
+        <v>1417</v>
       </c>
       <c r="F18" t="n">
-        <v>1894</v>
+        <v>1499</v>
       </c>
       <c r="G18" t="n">
-        <v>287.04</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="n">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="C19" t="n">
-        <v>1195</v>
+        <v>1417</v>
       </c>
       <c r="D19" t="n">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="E19" t="n">
-        <v>1195</v>
+        <v>1417</v>
       </c>
       <c r="F19" t="n">
-        <v>2840</v>
+        <v>1499</v>
       </c>
       <c r="G19" t="n">
-        <v>293</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="n">
-        <v>706.775</v>
+        <v>737</v>
       </c>
       <c r="C20" t="n">
-        <v>512</v>
+        <v>1276</v>
       </c>
       <c r="D20" t="n">
-        <v>706.775</v>
+        <v>737</v>
       </c>
       <c r="E20" t="n">
-        <v>512</v>
+        <v>1276</v>
       </c>
       <c r="F20" t="n">
-        <v>1640</v>
+        <v>1499</v>
       </c>
       <c r="G20" t="n">
-        <v>285.12</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B21" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="C21" t="n">
-        <v>477.5</v>
+        <v>1417</v>
       </c>
       <c r="D21" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E21" t="n">
-        <v>477.5</v>
+        <v>1417</v>
       </c>
       <c r="F21" t="n">
-        <v>1640</v>
+        <v>1499</v>
       </c>
       <c r="G21" t="n">
-        <v>283</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B22" t="n">
-        <v>695.625</v>
+        <v>730</v>
       </c>
       <c r="C22" t="n">
-        <v>482</v>
+        <v>1265</v>
       </c>
       <c r="D22" t="n">
-        <v>695.625</v>
+        <v>730</v>
       </c>
       <c r="E22" t="n">
-        <v>482</v>
+        <v>1265</v>
       </c>
       <c r="F22" t="n">
         <v>1499</v>
       </c>
       <c r="G22" t="n">
-        <v>291</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B23" t="n">
-        <v>708.5</v>
+        <v>721</v>
       </c>
       <c r="C23" t="n">
-        <v>492.5</v>
+        <v>1094</v>
       </c>
       <c r="D23" t="n">
-        <v>708.5</v>
+        <v>721</v>
       </c>
       <c r="E23" t="n">
-        <v>492.5</v>
+        <v>1094</v>
       </c>
       <c r="F23" t="n">
         <v>1499</v>
       </c>
       <c r="G23" t="n">
-        <v>278</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B24" t="n">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="C24" t="n">
-        <v>560</v>
+        <v>1417</v>
       </c>
       <c r="D24" t="n">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="E24" t="n">
-        <v>560</v>
+        <v>1417</v>
       </c>
       <c r="F24" t="n">
-        <v>1859</v>
+        <v>1499</v>
       </c>
       <c r="G24" t="n">
-        <v>275</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B25" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C25" t="n">
-        <v>985</v>
+        <v>1417</v>
       </c>
       <c r="D25" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E25" t="n">
-        <v>985</v>
+        <v>1417</v>
       </c>
       <c r="F25" t="n">
-        <v>2840</v>
+        <v>1499</v>
       </c>
       <c r="G25" t="n">
-        <v>275</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B26" t="n">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C26" t="n">
-        <v>808.4649999999999</v>
+        <v>1417</v>
       </c>
       <c r="D26" t="n">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="E26" t="n">
-        <v>808.4649999999999</v>
+        <v>1417</v>
       </c>
       <c r="F26" t="n">
-        <v>2840</v>
+        <v>1499</v>
       </c>
       <c r="G26" t="n">
-        <v>294</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B27" t="n">
-        <v>687</v>
+        <v>739</v>
       </c>
       <c r="C27" t="n">
-        <v>781</v>
+        <v>1417</v>
       </c>
       <c r="D27" t="n">
-        <v>687</v>
+        <v>739</v>
       </c>
       <c r="E27" t="n">
-        <v>781</v>
+        <v>1417</v>
       </c>
       <c r="F27" t="n">
-        <v>2840</v>
+        <v>1499</v>
       </c>
       <c r="G27" t="n">
-        <v>289</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B28" t="n">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="C28" t="n">
-        <v>685.85</v>
+        <v>1198.8</v>
       </c>
       <c r="D28" t="n">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="E28" t="n">
-        <v>685.85</v>
+        <v>1198.8</v>
       </c>
       <c r="F28" t="n">
         <v>1499</v>
       </c>
       <c r="G28" t="n">
-        <v>275</v>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B29" t="n">
+        <v>728</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D29" t="n">
+        <v>728</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1191</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G29" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B30" t="n">
+        <v>929</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1187.56</v>
+      </c>
+      <c r="D30" t="n">
+        <v>929</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1187.56</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G30" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B31" t="n">
+        <v>725</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1187.56</v>
+      </c>
+      <c r="D31" t="n">
+        <v>725</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1187.56</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1401</v>
+      </c>
+      <c r="G31" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G32" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1187.56</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1187.56</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G33" t="n">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B34" t="n">
+        <v>969</v>
+      </c>
+      <c r="C34" t="n">
+        <v>949</v>
+      </c>
+      <c r="D34" t="n">
+        <v>969</v>
+      </c>
+      <c r="E34" t="n">
+        <v>949</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B35" t="n">
+        <v>729</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1187.56</v>
+      </c>
+      <c r="D35" t="n">
+        <v>729</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1187.56</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G35" t="n">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/processed_data/daily_price_data.xlsx
+++ b/processed_data/daily_price_data.xlsx
@@ -666,13 +666,13 @@
         <v>747</v>
       </c>
       <c r="C10" t="n">
-        <v>1118.01</v>
+        <v>1288</v>
       </c>
       <c r="D10" t="n">
         <v>747</v>
       </c>
       <c r="E10" t="n">
-        <v>1118.01</v>
+        <v>1288</v>
       </c>
       <c r="F10" t="n">
         <v>1349</v>
@@ -1146,13 +1146,13 @@
         <v>45865</v>
       </c>
       <c r="B31" t="n">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C31" t="n">
         <v>1187.56</v>
       </c>
       <c r="D31" t="n">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E31" t="n">
         <v>1187.56</v>
